--- a/Gestion/L2 Mega_planif.xlsx
+++ b/Gestion/L2 Mega_planif.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gab49\Documents\GitHub\ProjetS5\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universite\S5\Projet\GitHub\ProjetS5\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="251">
   <si>
     <t>Objectif</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Aucune</t>
   </si>
   <si>
-    <t>Plage dynamique</t>
-  </si>
-  <si>
     <t>2 octaves</t>
   </si>
   <si>
@@ -196,18 +193,9 @@
     <t>2 notes</t>
   </si>
   <si>
-    <t>+/- 1 note</t>
-  </si>
-  <si>
-    <t>Détection d'accord (mélodie)</t>
-  </si>
-  <si>
     <t>1.T.2.5</t>
   </si>
   <si>
-    <t>Détection des touches noires</t>
-  </si>
-  <si>
     <t>Toutes</t>
   </si>
   <si>
@@ -764,6 +752,33 @@
   </si>
   <si>
     <t>+ 20 Hz</t>
+  </si>
+  <si>
+    <t>Qualité de la plage dynamique</t>
+  </si>
+  <si>
+    <t>Qualité des notes</t>
+  </si>
+  <si>
+    <t>Les 7 notes</t>
+  </si>
+  <si>
+    <t>Qualité du son entendu</t>
+  </si>
+  <si>
+    <t>Qualité des touches noires</t>
+  </si>
+  <si>
+    <t>1.T.2.6</t>
+  </si>
+  <si>
+    <t>Qualité d'accord (mélodie)</t>
+  </si>
+  <si>
+    <t>2.T.2.8</t>
+  </si>
+  <si>
+    <t>Détection exacte</t>
   </si>
 </sst>
 </file>
@@ -878,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -900,9 +915,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -927,6 +939,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -936,12 +954,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,39 +1282,39 @@
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="47.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1308,122 +1328,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA510"/>
+  <dimension ref="A1:AA512"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-    </row>
-    <row r="2" spans="1:27" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="P4" s="2"/>
@@ -1439,8 +1459,8 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -1472,8 +1492,8 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1504,8 +1524,8 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1536,8 +1556,8 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1574,8 +1594,8 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1614,8 +1634,8 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1652,14 +1672,14 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1683,24 +1703,24 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1721,21 +1741,21 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>38</v>
@@ -1759,17 +1779,17 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>40</v>
@@ -1796,31 +1816,33 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="5"/>
+      <c r="E15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1834,18 +1856,18 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>59</v>
+      <c r="E16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>246</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>40</v>
@@ -1858,7 +1880,9 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1872,55 +1896,58 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1940,18 +1967,24 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>68</v>
-      </c>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1971,14 +2004,14 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>70</v>
-      </c>
+    <row r="20" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2002,29 +2035,22 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="2">
-        <v>2</v>
-      </c>
-      <c r="L21" s="2">
-        <v>4</v>
-      </c>
-      <c r="M21" s="2">
-        <f>L21*K21</f>
-        <v>8</v>
-      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -2040,14 +2066,14 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2057,11 +2083,11 @@
         <v>2</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" ref="M22:M23" si="0">L22*K22</f>
-        <v>2</v>
+        <f>L22*K22</f>
+        <v>8</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2078,14 +2104,14 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2098,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M23:M24" si="0">L23*K23</f>
         <v>2</v>
       </c>
       <c r="N23" s="2"/>
@@ -2116,22 +2142,29 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F24" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -2147,29 +2180,22 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="2">
-        <v>2</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
-        <f>L25*K25</f>
-        <v>2</v>
-      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2185,14 +2211,14 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2202,11 +2228,11 @@
         <v>2</v>
       </c>
       <c r="L26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" ref="M26:M27" si="1">L26*K26</f>
-        <v>8</v>
+        <f>L26*K26</f>
+        <v>2</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2223,14 +2249,14 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2240,11 +2266,11 @@
         <v>2</v>
       </c>
       <c r="L27" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="M27:M28" si="1">L27*K27</f>
+        <v>8</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2261,22 +2287,29 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="K28" s="2">
+        <v>2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2292,29 +2325,22 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="2">
-        <v>2</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2">
-        <f>L29*K29</f>
-        <v>2</v>
-      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2330,14 +2356,14 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2347,11 +2373,11 @@
         <v>2</v>
       </c>
       <c r="L30" s="2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" ref="M30:M31" si="2">L30*K30</f>
-        <v>5</v>
+        <f>L30*K30</f>
+        <v>2</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2368,14 +2394,14 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2385,11 +2411,11 @@
         <v>2</v>
       </c>
       <c r="L31" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" ref="M31:M32" si="2">L31*K31</f>
+        <v>5</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2406,23 +2432,29 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>2</v>
-      </c>
+    <row r="32" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="2">
+        <v>2</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -2438,19 +2470,20 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2469,14 +2502,14 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2500,24 +2533,18 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="D35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>43</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2537,23 +2564,23 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>43</v>
+        <v>98</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2574,19 +2601,23 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
-        <v>38</v>
+        <v>92</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2607,23 +2638,19 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>43</v>
+        <v>100</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2644,18 +2671,24 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -2675,24 +2708,18 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="D40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>36</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2712,20 +2739,24 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -2745,24 +2776,20 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="G42" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H42" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="G42" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -2782,23 +2809,23 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>43</v>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -2819,23 +2846,23 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>43</v>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -2856,23 +2883,23 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>38</v>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -2893,124 +2920,127 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-    </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-    </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
+    <row r="46" spans="2:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+    </row>
+    <row r="47" spans="2:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+    </row>
+    <row r="48" spans="2:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2">
-        <v>2</v>
-      </c>
-      <c r="L49" s="2">
-        <v>4</v>
-      </c>
-      <c r="M49" s="2">
-        <f>L49*K49</f>
-        <v>8</v>
-      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -3026,29 +3056,22 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="D50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2">
-        <v>2</v>
-      </c>
-      <c r="L50" s="2">
-        <v>1</v>
-      </c>
-      <c r="M50" s="2">
-        <f t="shared" ref="M50:M51" si="3">L50*K50</f>
-        <v>2</v>
-      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -3064,14 +3087,14 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -3081,11 +3104,11 @@
         <v>2</v>
       </c>
       <c r="L51" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>L51*K51</f>
+        <v>8</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -3102,22 +3125,29 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="F52" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="K52" s="2">
+        <v>2</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" ref="M52:M53" si="3">L52*K52</f>
+        <v>2</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -3133,14 +3163,14 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3150,11 +3180,11 @@
         <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2">
-        <f>L53*K53</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3171,29 +3201,22 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="D54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2">
-        <v>2</v>
-      </c>
-      <c r="L54" s="2">
-        <v>10</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" ref="M54:M55" si="4">L54*K54</f>
-        <v>20</v>
-      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3209,14 +3232,14 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3226,11 +3249,11 @@
         <v>2</v>
       </c>
       <c r="L55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>L55*K55</f>
+        <v>6</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -3247,22 +3270,29 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="F56" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+      <c r="K56" s="2">
+        <v>2</v>
+      </c>
+      <c r="L56" s="2">
+        <v>10</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" ref="M56:M57" si="4">L56*K56</f>
+        <v>20</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -3278,14 +3308,14 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3295,11 +3325,11 @@
         <v>2</v>
       </c>
       <c r="L57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M57" s="2">
-        <f>L57*K57</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -3316,29 +3346,22 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="D58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2">
-        <v>2</v>
-      </c>
-      <c r="L58" s="2">
-        <v>6</v>
-      </c>
-      <c r="M58" s="2">
-        <f t="shared" ref="M58:M59" si="5">L58*K58</f>
-        <v>12</v>
-      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -3354,14 +3377,14 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -3371,11 +3394,11 @@
         <v>2</v>
       </c>
       <c r="L59" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>L59*K59</f>
+        <v>6</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -3392,23 +3415,29 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="3">
-        <v>3</v>
-      </c>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
-        <v>144</v>
+      <c r="E60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
+      <c r="K60" s="2">
+        <v>2</v>
+      </c>
+      <c r="L60" s="2">
+        <v>6</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" ref="M60:M61" si="5">L60*K60</f>
+        <v>12</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -3424,23 +3453,29 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="2" t="s">
-        <v>119</v>
-      </c>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
-        <v>145</v>
+      <c r="E61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
+      <c r="K61" s="2">
+        <v>2</v>
+      </c>
+      <c r="L61" s="2">
+        <v>4</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -3456,15 +3491,15 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B62" s="3">
+        <v>3</v>
+      </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -3488,25 +3523,19 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="2:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B63" s="3"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -3526,25 +3555,19 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="D64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -3564,24 +3587,24 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>224</v>
+        <v>149</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -3602,21 +3625,25 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3636,23 +3663,24 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>187</v>
+        <v>219</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -3673,24 +3701,21 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B68" s="3"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -3710,18 +3735,24 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3741,23 +3772,23 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>212</v>
+        <v>184</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3778,24 +3809,18 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="D71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -3815,18 +3840,24 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
-      <c r="D72" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -3846,23 +3877,23 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>211</v>
+        <v>186</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -3883,24 +3914,18 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="2:27" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="D74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -3920,14 +3945,23 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>152</v>
+        <v>205</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -3948,23 +3982,23 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>204</v>
+        <v>216</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -3985,23 +4019,14 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="D77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -4022,20 +4047,24 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -4055,18 +4084,24 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
-      <c r="D79" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -4086,17 +4121,17 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -4119,18 +4154,16 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="D81" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4152,17 +4185,17 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -4185,16 +4218,18 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
-      <c r="D83" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G83" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -4216,24 +4251,20 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -4253,17 +4284,17 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="G85" s="2"/>
-      <c r="H85" s="4"/>
+      <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -4284,23 +4315,23 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -4321,24 +4352,18 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="D87" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -4358,19 +4383,24 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-      <c r="C88" s="2" t="s">
-        <v>125</v>
-      </c>
+    <row r="88" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4390,19 +4420,24 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
+    <row r="89" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
-      <c r="D89" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -4422,30 +4457,23 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B90" s="3"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="2">
-        <v>2</v>
-      </c>
-      <c r="L90" s="2">
-        <v>4</v>
-      </c>
-      <c r="M90" s="2">
-        <f>L90*K90</f>
-        <v>8</v>
-      </c>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -4461,30 +4489,23 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="D91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="F91" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="2">
-        <v>2</v>
-      </c>
-      <c r="L91" s="2">
-        <v>1</v>
-      </c>
-      <c r="M91" s="2">
-        <f t="shared" ref="M91:M92" si="6">L91*K91</f>
-        <v>2</v>
-      </c>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -4500,15 +4521,15 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -4518,11 +4539,11 @@
         <v>2</v>
       </c>
       <c r="L92" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M92" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>L92*K92</f>
+        <v>8</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -4539,23 +4560,30 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F93" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="K93" s="2">
+        <v>2</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1</v>
+      </c>
+      <c r="M93" s="2">
+        <f t="shared" ref="M93:M94" si="6">L93*K93</f>
+        <v>2</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -4571,15 +4599,15 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4589,11 +4617,11 @@
         <v>2</v>
       </c>
       <c r="L94" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94" s="2">
-        <f>L94*K94</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -4610,30 +4638,23 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="D95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="2">
-        <v>2</v>
-      </c>
-      <c r="L95" s="2">
-        <v>10</v>
-      </c>
-      <c r="M95" s="2">
-        <f t="shared" ref="M95:M96" si="7">L95*K95</f>
-        <v>20</v>
-      </c>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -4649,15 +4670,15 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -4667,11 +4688,11 @@
         <v>2</v>
       </c>
       <c r="L96" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M96" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f>L96*K96</f>
+        <v>6</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -4688,23 +4709,30 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="F97" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
+      <c r="K97" s="2">
+        <v>2</v>
+      </c>
+      <c r="L97" s="2">
+        <v>10</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" ref="M97:M98" si="7">L97*K97</f>
+        <v>20</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -4720,15 +4748,15 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4738,11 +4766,11 @@
         <v>2</v>
       </c>
       <c r="L98" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M98" s="2">
-        <f>L98*K98</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -4759,30 +4787,23 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="D99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E99" s="2"/>
       <c r="F99" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2">
-        <v>2</v>
-      </c>
-      <c r="L99" s="2">
-        <v>6</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" ref="M99:M100" si="8">L99*K99</f>
-        <v>12</v>
-      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -4798,15 +4819,15 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -4816,11 +4837,11 @@
         <v>2</v>
       </c>
       <c r="L100" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M100" s="2">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f>L100*K100</f>
+        <v>6</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -4837,18 +4858,30 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="E101" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="K101" s="2">
+        <v>2</v>
+      </c>
+      <c r="L101" s="2">
+        <v>6</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" ref="M101:M102" si="8">L101*K101</f>
+        <v>12</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -4864,18 +4897,30 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="E102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
+      <c r="K102" s="2">
+        <v>2</v>
+      </c>
+      <c r="L102" s="2">
+        <v>4</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -4891,7 +4936,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -4918,7 +4963,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -4945,7 +4990,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -4972,7 +5017,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4999,7 +5044,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5026,7 +5071,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -5053,7 +5098,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -5080,7 +5125,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5107,7 +5152,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5134,7 +5179,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5161,7 +5206,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5188,7 +5233,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5215,7 +5260,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5242,7 +5287,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5269,7 +5314,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5296,7 +5341,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5323,7 +5368,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5350,7 +5395,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5377,7 +5422,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5404,7 +5449,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5431,7 +5476,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5458,7 +5503,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5485,7 +5530,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5512,7 +5557,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5539,7 +5584,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5566,7 +5611,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5593,7 +5638,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5620,7 +5665,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5647,7 +5692,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5674,7 +5719,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5701,7 +5746,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5728,7 +5773,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5755,7 +5800,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5782,7 +5827,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5809,7 +5854,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5836,7 +5881,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5863,7 +5908,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5890,7 +5935,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -5917,7 +5962,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5944,7 +5989,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5971,7 +6016,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5998,7 +6043,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -6025,7 +6070,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -6052,7 +6097,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -6079,7 +6124,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -6106,7 +6151,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6133,7 +6178,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6160,7 +6205,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6187,7 +6232,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6214,7 +6259,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -6241,7 +6286,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -6268,7 +6313,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6295,7 +6340,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6322,7 +6367,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6349,7 +6394,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -6376,7 +6421,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -6403,7 +6448,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6430,7 +6475,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6457,7 +6502,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6484,7 +6529,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6511,7 +6556,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6538,7 +6583,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6565,7 +6610,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6592,7 +6637,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6619,7 +6664,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6646,7 +6691,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6673,7 +6718,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6700,7 +6745,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6727,7 +6772,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6754,7 +6799,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6781,7 +6826,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6808,7 +6853,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6835,7 +6880,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6862,7 +6907,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6889,7 +6934,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6916,7 +6961,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6943,7 +6988,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6970,7 +7015,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6997,7 +7042,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -7024,7 +7069,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7051,7 +7096,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7078,7 +7123,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -7105,7 +7150,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7132,7 +7177,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7159,7 +7204,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7186,7 +7231,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -7213,7 +7258,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7240,7 +7285,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7267,7 +7312,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7294,7 +7339,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -7321,7 +7366,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -7348,7 +7393,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -7375,7 +7420,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -7402,7 +7447,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -7429,7 +7474,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -7456,7 +7501,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -7483,7 +7528,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -7510,7 +7555,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -7537,7 +7582,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -7564,7 +7609,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -7591,7 +7636,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -7618,7 +7663,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -7645,7 +7690,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -7672,7 +7717,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -7699,7 +7744,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -7726,7 +7771,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -7753,7 +7798,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -7780,7 +7825,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -7807,7 +7852,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -7834,7 +7879,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -7861,7 +7906,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -7888,7 +7933,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -7915,7 +7960,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -7942,7 +7987,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -7969,7 +8014,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -7996,7 +8041,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -8023,7 +8068,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -8050,7 +8095,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -8077,7 +8122,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -8104,7 +8149,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -8131,7 +8176,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -8158,7 +8203,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8185,7 +8230,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -8212,7 +8257,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -8239,7 +8284,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -8266,7 +8311,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -8293,7 +8338,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8320,7 +8365,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -8347,7 +8392,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -8374,7 +8419,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -8401,7 +8446,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -8428,7 +8473,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -8455,7 +8500,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -8482,7 +8527,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -8509,7 +8554,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -8536,7 +8581,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -8563,7 +8608,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -8590,7 +8635,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -8617,7 +8662,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -8644,7 +8689,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -8671,7 +8716,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -8698,7 +8743,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -8725,7 +8770,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -8752,7 +8797,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -8779,7 +8824,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -8806,7 +8851,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -8833,7 +8878,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -8860,7 +8905,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -8887,7 +8932,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -8914,7 +8959,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -8941,7 +8986,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -8968,7 +9013,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -8995,7 +9040,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -9022,7 +9067,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -9049,7 +9094,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -9076,7 +9121,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -9103,7 +9148,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -9130,7 +9175,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -9157,7 +9202,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -9184,7 +9229,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -9211,7 +9256,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -9238,7 +9283,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -9265,7 +9310,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -9292,7 +9337,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -9319,7 +9364,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -9346,7 +9391,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -9373,7 +9418,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -9400,7 +9445,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -9427,7 +9472,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -9454,7 +9499,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -9481,7 +9526,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -9508,7 +9553,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -9535,7 +9580,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -9562,7 +9607,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -9589,7 +9634,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -9616,7 +9661,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -9643,7 +9688,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -9670,7 +9715,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -9697,7 +9742,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -9724,7 +9769,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -9751,7 +9796,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -9778,7 +9823,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -9805,7 +9850,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -9832,7 +9877,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -9859,7 +9904,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -9886,7 +9931,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -9913,7 +9958,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -9940,7 +9985,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -9967,7 +10012,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -9994,7 +10039,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -10021,7 +10066,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -10048,7 +10093,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -10075,7 +10120,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -10102,7 +10147,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -10129,7 +10174,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -10156,7 +10201,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -10183,7 +10228,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -10210,7 +10255,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -10237,7 +10282,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -10264,7 +10309,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -10291,7 +10336,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -10318,7 +10363,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -10345,7 +10390,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -10372,7 +10417,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -10399,7 +10444,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -10426,7 +10471,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -10453,7 +10498,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -10480,7 +10525,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -10507,7 +10552,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -10534,7 +10579,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -10561,7 +10606,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -10588,7 +10633,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -10615,7 +10660,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -10642,7 +10687,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -10669,7 +10714,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -10696,7 +10741,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -10723,7 +10768,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -10750,7 +10795,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -10777,7 +10822,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -10804,7 +10849,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -10831,7 +10876,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -10858,7 +10903,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -10885,7 +10930,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -10912,7 +10957,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -10939,7 +10984,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -10966,7 +11011,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -10993,7 +11038,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -11020,7 +11065,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11047,7 +11092,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11074,7 +11119,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11101,7 +11146,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -11128,7 +11173,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -11155,7 +11200,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -11182,7 +11227,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -11209,7 +11254,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -11236,7 +11281,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -11263,7 +11308,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -11290,7 +11335,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -11317,7 +11362,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -11344,7 +11389,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -11371,7 +11416,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -11398,7 +11443,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -11425,7 +11470,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -11452,7 +11497,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -11479,7 +11524,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -11506,7 +11551,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -11533,7 +11578,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -11560,7 +11605,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -11587,7 +11632,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -11614,7 +11659,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -11641,7 +11686,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -11668,7 +11713,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -11695,7 +11740,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -11722,7 +11767,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -11749,7 +11794,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -11776,7 +11821,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -11803,7 +11848,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -11830,7 +11875,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -11857,7 +11902,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -11884,7 +11929,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -11911,7 +11956,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -11938,7 +11983,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -11965,7 +12010,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -11992,7 +12037,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -12019,7 +12064,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -12046,7 +12091,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -12073,7 +12118,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -12100,7 +12145,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -12127,7 +12172,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -12154,7 +12199,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -12181,7 +12226,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -12208,7 +12253,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -12235,7 +12280,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -12262,7 +12307,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -12289,7 +12334,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -12316,7 +12361,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -12343,7 +12388,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -12370,7 +12415,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -12397,7 +12442,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -12424,7 +12469,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -12451,7 +12496,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -12478,7 +12523,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -12505,7 +12550,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -12532,7 +12577,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -12559,7 +12604,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -12586,7 +12631,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -12613,7 +12658,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -12640,7 +12685,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -12667,7 +12712,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -12694,7 +12739,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -12721,7 +12766,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -12748,7 +12793,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -12775,7 +12820,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -12802,7 +12847,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -12829,7 +12874,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -12856,7 +12901,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -12883,7 +12928,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -12910,7 +12955,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -12937,7 +12982,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -12964,7 +13009,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -12991,7 +13036,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -13018,7 +13063,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -13045,7 +13090,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -13072,7 +13117,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -13099,7 +13144,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -13126,7 +13171,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -13153,7 +13198,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -13180,7 +13225,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -13207,7 +13252,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -13234,7 +13279,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -13261,7 +13306,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -13288,7 +13333,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -13315,7 +13360,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -13342,7 +13387,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -13369,7 +13414,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -13396,7 +13441,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -13423,7 +13468,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -13450,7 +13495,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -13477,7 +13522,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -13504,7 +13549,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -13531,7 +13576,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -13558,7 +13603,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -13585,7 +13630,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -13612,7 +13657,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -13639,7 +13684,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -13666,7 +13711,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -13693,7 +13738,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -13720,7 +13765,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -13747,7 +13792,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -13774,7 +13819,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -13801,7 +13846,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -13828,7 +13873,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -13855,7 +13900,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -13882,7 +13927,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -13909,7 +13954,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -13936,7 +13981,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -13963,7 +14008,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -13990,7 +14035,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -14017,7 +14062,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -14044,7 +14089,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -14071,7 +14116,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -14098,7 +14143,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -14125,7 +14170,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -14152,7 +14197,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -14179,7 +14224,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -14206,7 +14251,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -14233,7 +14278,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -14260,7 +14305,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -14287,7 +14332,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -14314,7 +14359,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -14341,7 +14386,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -14368,7 +14413,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -14395,7 +14440,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -14422,7 +14467,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -14449,7 +14494,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -14476,7 +14521,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -14503,7 +14548,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -14530,7 +14575,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -14557,7 +14602,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -14584,7 +14629,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -14611,7 +14656,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -14638,7 +14683,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -14665,7 +14710,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -14692,7 +14737,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -14719,7 +14764,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -14746,7 +14791,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -14773,7 +14818,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -14800,7 +14845,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -14827,7 +14872,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -14854,7 +14899,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -14881,7 +14926,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -14908,7 +14953,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -14935,7 +14980,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -14962,7 +15007,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -14989,7 +15034,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -15016,7 +15061,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -15043,7 +15088,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -15070,7 +15115,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -15097,7 +15142,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -15124,7 +15169,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -15151,7 +15196,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -15178,7 +15223,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -15205,7 +15250,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -15232,7 +15277,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -15259,7 +15304,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -15286,7 +15331,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -15313,7 +15358,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -15340,7 +15385,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -15367,7 +15412,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -15394,7 +15439,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -15421,7 +15466,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -15448,7 +15493,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -15475,7 +15520,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -15502,7 +15547,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -15529,7 +15574,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -15556,7 +15601,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -15583,7 +15628,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -15610,7 +15655,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -15637,7 +15682,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -15664,7 +15709,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -15691,7 +15736,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -15718,7 +15763,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -15745,7 +15790,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -15772,7 +15817,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -15799,7 +15844,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -15826,7 +15871,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -15853,7 +15898,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -15880,7 +15925,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -15907,6 +15952,60 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
+    <row r="511" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C511" s="2"/>
+      <c r="D511" s="2"/>
+      <c r="E511" s="2"/>
+      <c r="F511" s="2"/>
+      <c r="G511" s="2"/>
+      <c r="H511" s="2"/>
+      <c r="I511" s="2"/>
+      <c r="J511" s="2"/>
+      <c r="K511" s="2"/>
+      <c r="L511" s="2"/>
+      <c r="M511" s="2"/>
+      <c r="N511" s="2"/>
+      <c r="O511" s="2"/>
+      <c r="P511" s="2"/>
+      <c r="Q511" s="2"/>
+      <c r="R511" s="2"/>
+      <c r="S511" s="2"/>
+      <c r="T511" s="2"/>
+      <c r="U511" s="2"/>
+      <c r="V511" s="2"/>
+      <c r="W511" s="2"/>
+      <c r="X511" s="2"/>
+      <c r="Y511" s="2"/>
+      <c r="Z511" s="2"/>
+      <c r="AA511" s="2"/>
+    </row>
+    <row r="512" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C512" s="2"/>
+      <c r="D512" s="2"/>
+      <c r="E512" s="2"/>
+      <c r="F512" s="2"/>
+      <c r="G512" s="2"/>
+      <c r="H512" s="2"/>
+      <c r="I512" s="2"/>
+      <c r="J512" s="2"/>
+      <c r="K512" s="2"/>
+      <c r="L512" s="2"/>
+      <c r="M512" s="2"/>
+      <c r="N512" s="2"/>
+      <c r="O512" s="2"/>
+      <c r="P512" s="2"/>
+      <c r="Q512" s="2"/>
+      <c r="R512" s="2"/>
+      <c r="S512" s="2"/>
+      <c r="T512" s="2"/>
+      <c r="U512" s="2"/>
+      <c r="V512" s="2"/>
+      <c r="W512" s="2"/>
+      <c r="X512" s="2"/>
+      <c r="Y512" s="2"/>
+      <c r="Z512" s="2"/>
+      <c r="AA512" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
@@ -15928,9 +16027,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="1.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gestion/L2 Mega_planif.xlsx
+++ b/Gestion/L2 Mega_planif.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="254">
   <si>
     <t>Objectif</t>
   </si>
@@ -779,6 +779,15 @@
   </si>
   <si>
     <t>Détection exacte</t>
+  </si>
+  <si>
+    <t>Détection des notes</t>
+  </si>
+  <si>
+    <t>Détection des touches noires</t>
+  </si>
+  <si>
+    <t>2.T.2.9</t>
   </si>
 </sst>
 </file>
@@ -893,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -945,6 +954,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,14 +971,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,36 +1297,36 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="47.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1328,13 +1340,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA512"/>
+  <dimension ref="A1:AA513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,62 +1358,64 @@
     <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
@@ -1820,10 +1834,10 @@
       <c r="A15" s="16"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="19" t="s">
         <v>243</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1860,10 +1874,10 @@
       <c r="A16" s="16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="19" t="s">
         <v>246</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -1896,26 +1910,26 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -2920,7 +2934,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="2:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
@@ -2957,26 +2971,32 @@
       <c r="Z46" s="17"/>
       <c r="AA46" s="17"/>
     </row>
-    <row r="47" spans="2:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>165</v>
+      <c r="F47" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+        <v>244</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
+      <c r="O47" s="17" t="s">
+        <v>250</v>
+      </c>
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -2990,21 +3010,25 @@
       <c r="Z47" s="17"/>
       <c r="AA47" s="17"/>
     </row>
-    <row r="48" spans="2:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="F48" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="19"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
@@ -3025,45 +3049,49 @@
       <c r="Z48" s="17"/>
       <c r="AA48" s="17"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C49" s="2" t="s">
+    <row r="49" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -3089,27 +3117,20 @@
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2">
-        <v>2</v>
-      </c>
-      <c r="L51" s="2">
-        <v>4</v>
-      </c>
-      <c r="M51" s="2">
-        <f>L51*K51</f>
-        <v>8</v>
-      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -3129,10 +3150,10 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -3142,11 +3163,11 @@
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" ref="M52:M53" si="3">L52*K52</f>
-        <v>2</v>
+        <f>L52*K52</f>
+        <v>8</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3167,10 +3188,10 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3183,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M53:M54" si="3">L53*K53</f>
         <v>2</v>
       </c>
       <c r="N53" s="2"/>
@@ -3203,20 +3224,27 @@
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F54" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="K54" s="2">
+        <v>2</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3234,27 +3262,20 @@
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="D55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2">
-        <v>2</v>
-      </c>
-      <c r="L55" s="2">
-        <v>3</v>
-      </c>
-      <c r="M55" s="2">
-        <f>L55*K55</f>
-        <v>6</v>
-      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3274,10 +3295,10 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3287,11 +3308,11 @@
         <v>2</v>
       </c>
       <c r="L56" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" ref="M56:M57" si="4">L56*K56</f>
-        <v>20</v>
+        <f>L56*K56</f>
+        <v>6</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -3312,10 +3333,10 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3325,11 +3346,11 @@
         <v>2</v>
       </c>
       <c r="L57" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="M57:M58" si="4">L57*K57</f>
+        <v>20</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -3348,20 +3369,27 @@
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="F58" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+      <c r="K58" s="2">
+        <v>2</v>
+      </c>
+      <c r="L58" s="2">
+        <v>2</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -3379,27 +3407,20 @@
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="D59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2">
-        <v>2</v>
-      </c>
-      <c r="L59" s="2">
-        <v>3</v>
-      </c>
-      <c r="M59" s="2">
-        <f>L59*K59</f>
-        <v>6</v>
-      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -3419,10 +3440,10 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -3432,11 +3453,11 @@
         <v>2</v>
       </c>
       <c r="L60" s="2">
+        <v>3</v>
+      </c>
+      <c r="M60" s="2">
+        <f>L60*K60</f>
         <v>6</v>
-      </c>
-      <c r="M60" s="2">
-        <f t="shared" ref="M60:M61" si="5">L60*K60</f>
-        <v>12</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -3457,10 +3478,10 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3470,11 +3491,11 @@
         <v>2</v>
       </c>
       <c r="L61" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" ref="M61:M62" si="5">L61*K61</f>
+        <v>12</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -3492,22 +3513,28 @@
       <c r="AA61" s="2"/>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B62" s="3">
-        <v>3</v>
-      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
-        <v>140</v>
+      <c r="E62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+      <c r="K62" s="2">
+        <v>2</v>
+      </c>
+      <c r="L62" s="2">
+        <v>4</v>
+      </c>
+      <c r="M62" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -3524,14 +3551,14 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B63" s="3"/>
-      <c r="C63" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B63" s="3">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -3557,13 +3584,13 @@
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="C64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -3587,25 +3614,19 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="D65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3625,24 +3646,24 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3668,19 +3689,19 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>220</v>
+        <v>150</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -3706,16 +3727,20 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -3735,24 +3760,21 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3776,19 +3798,19 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3811,16 +3833,22 @@
     </row>
     <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -3842,22 +3870,16 @@
     </row>
     <row r="72" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="D72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -3881,19 +3903,19 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>187</v>
+        <v>153</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -3916,16 +3938,22 @@
     </row>
     <row r="74" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -3947,22 +3975,16 @@
     </row>
     <row r="75" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="D75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -3982,20 +4004,20 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>218</v>
+        <v>205</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>36</v>
@@ -4019,14 +4041,23 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>148</v>
+        <v>216</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -4049,21 +4080,12 @@
     </row>
     <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="D78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -4088,16 +4110,16 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>38</v>
@@ -4125,16 +4147,20 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -4156,14 +4182,16 @@
     </row>
     <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
-      <c r="D81" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4187,16 +4215,14 @@
     </row>
     <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="D82" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4222,10 +4248,10 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>221</v>
@@ -4255,10 +4281,10 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>221</v>
@@ -4286,14 +4312,16 @@
     </row>
     <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
-      <c r="D85" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G85" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -4317,22 +4345,16 @@
     </row>
     <row r="86" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D86" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4354,16 +4376,22 @@
     </row>
     <row r="87" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -4385,22 +4413,16 @@
     </row>
     <row r="88" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="D88" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4424,13 +4446,13 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>192</v>
@@ -4457,19 +4479,24 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B90" s="3"/>
-      <c r="C90" s="2" t="s">
-        <v>121</v>
-      </c>
+    <row r="90" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -4491,13 +4518,13 @@
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B91" s="3"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="C91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -4524,27 +4551,20 @@
     <row r="92" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="D92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="2"/>
       <c r="F92" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="2">
-        <v>2</v>
-      </c>
-      <c r="L92" s="2">
-        <v>4</v>
-      </c>
-      <c r="M92" s="2">
-        <f>L92*K92</f>
-        <v>8</v>
-      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -4565,10 +4585,10 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -4578,11 +4598,11 @@
         <v>2</v>
       </c>
       <c r="L93" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" ref="M93:M94" si="6">L93*K93</f>
-        <v>2</v>
+        <f>L93*K93</f>
+        <v>8</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -4604,10 +4624,10 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4620,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M94:M95" si="6">L94*K94</f>
         <v>2</v>
       </c>
       <c r="N94" s="2"/>
@@ -4641,20 +4661,27 @@
     <row r="95" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="F95" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
+      <c r="K95" s="2">
+        <v>2</v>
+      </c>
+      <c r="L95" s="2">
+        <v>1</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -4673,27 +4700,20 @@
     <row r="96" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="D96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2">
-        <v>2</v>
-      </c>
-      <c r="L96" s="2">
-        <v>3</v>
-      </c>
-      <c r="M96" s="2">
-        <f>L96*K96</f>
-        <v>6</v>
-      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -4714,10 +4734,10 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4727,11 +4747,11 @@
         <v>2</v>
       </c>
       <c r="L97" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M97" s="2">
-        <f t="shared" ref="M97:M98" si="7">L97*K97</f>
-        <v>20</v>
+        <f>L97*K97</f>
+        <v>6</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -4753,10 +4773,10 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4766,11 +4786,11 @@
         <v>2</v>
       </c>
       <c r="L98" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" ref="M98:M99" si="7">L98*K98</f>
+        <v>20</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -4790,20 +4810,27 @@
     <row r="99" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F99" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
+      <c r="K99" s="2">
+        <v>2</v>
+      </c>
+      <c r="L99" s="2">
+        <v>2</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -4822,27 +4849,20 @@
     <row r="100" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="D100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" s="2"/>
       <c r="F100" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2">
-        <v>2</v>
-      </c>
-      <c r="L100" s="2">
-        <v>3</v>
-      </c>
-      <c r="M100" s="2">
-        <f>L100*K100</f>
-        <v>6</v>
-      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -4863,10 +4883,10 @@
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -4876,11 +4896,11 @@
         <v>2</v>
       </c>
       <c r="L101" s="2">
+        <v>3</v>
+      </c>
+      <c r="M101" s="2">
+        <f>L101*K101</f>
         <v>6</v>
-      </c>
-      <c r="M101" s="2">
-        <f t="shared" ref="M101:M102" si="8">L101*K101</f>
-        <v>12</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -4902,10 +4922,10 @@
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -4915,11 +4935,11 @@
         <v>2</v>
       </c>
       <c r="L102" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M102" s="2">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" ref="M102:M103" si="8">L102*K102</f>
+        <v>12</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -4937,17 +4957,29 @@
       <c r="AA102" s="2"/>
     </row>
     <row r="103" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B103" s="3"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
+      <c r="K103" s="2">
+        <v>2</v>
+      </c>
+      <c r="L103" s="2">
+        <v>4</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -16005,6 +16037,33 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
+    </row>
+    <row r="513" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C513" s="2"/>
+      <c r="D513" s="2"/>
+      <c r="E513" s="2"/>
+      <c r="F513" s="2"/>
+      <c r="G513" s="2"/>
+      <c r="H513" s="2"/>
+      <c r="I513" s="2"/>
+      <c r="J513" s="2"/>
+      <c r="K513" s="2"/>
+      <c r="L513" s="2"/>
+      <c r="M513" s="2"/>
+      <c r="N513" s="2"/>
+      <c r="O513" s="2"/>
+      <c r="P513" s="2"/>
+      <c r="Q513" s="2"/>
+      <c r="R513" s="2"/>
+      <c r="S513" s="2"/>
+      <c r="T513" s="2"/>
+      <c r="U513" s="2"/>
+      <c r="V513" s="2"/>
+      <c r="W513" s="2"/>
+      <c r="X513" s="2"/>
+      <c r="Y513" s="2"/>
+      <c r="Z513" s="2"/>
+      <c r="AA513" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Gestion/L2 Mega_planif.xlsx
+++ b/Gestion/L2 Mega_planif.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\ecole\s5\Projet\Git\ProjetS5\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universite\S5\Projet\GitHub\ProjetS5\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="264">
   <si>
     <t>Objectif</t>
   </si>
@@ -797,13 +797,73 @@
   </si>
   <si>
     <t>Envoie/réception bon data</t>
+  </si>
+  <si>
+    <t>3.T.5.5</t>
+  </si>
+  <si>
+    <t>Communication Écran LCD-PIC</t>
+  </si>
+  <si>
+    <t>3.T.5.6</t>
+  </si>
+  <si>
+    <t>Communication Clavier-PIC</t>
+  </si>
+  <si>
+    <t>On peut afficher toutes les informations voulues</t>
+  </si>
+  <si>
+    <t>On peut écrire/selectionner les options affichées à l'aide de la télécommande</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rouge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Changements revue 2   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bleu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Changements revue 3 </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,19 +892,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -911,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -956,7 +1024,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -969,7 +1036,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -981,6 +1047,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1001,7 +1077,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1303,39 +1379,39 @@
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="47.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1349,84 +1425,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA514"/>
+  <dimension ref="A1:AA516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L86" sqref="L86"/>
+      <selection pane="bottomRight" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="3" customWidth="1"/>
     <col min="2" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="66.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="2" spans="1:27" ht="30.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="2:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-    </row>
-    <row r="3" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1482,8 +1561,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A5" s="16"/>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1515,8 +1593,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A6" s="16"/>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1547,8 +1624,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A7" s="16"/>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1579,8 +1655,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A8" s="16"/>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1617,8 +1692,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A9" s="16"/>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1657,8 +1731,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1695,7 +1768,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>43</v>
@@ -1726,14 +1799,13 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A12" s="16"/>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>242</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1764,8 +1836,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A13" s="16"/>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -1802,7 +1873,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1839,14 +1910,13 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="16"/>
+    <row r="15" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>243</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1863,7 +1933,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="16" t="s">
         <v>245</v>
       </c>
       <c r="P15" s="2"/>
@@ -1879,14 +1949,13 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16"/>
+    <row r="16" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>246</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -1903,7 +1972,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="17" t="s">
+      <c r="O16" s="16" t="s">
         <v>245</v>
       </c>
       <c r="P16" s="2"/>
@@ -1919,47 +1988,47 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="21"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="20" t="s">
+    <row r="17" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17" t="s">
+      <c r="J17" s="19"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>57</v>
@@ -1990,7 +2059,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -2027,7 +2096,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
         <v>64</v>
       </c>
@@ -2058,7 +2127,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>66</v>
@@ -2089,7 +2158,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
@@ -2127,7 +2196,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
@@ -2165,7 +2234,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
@@ -2203,7 +2272,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>73</v>
@@ -2234,7 +2303,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
@@ -2272,7 +2341,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -2310,7 +2379,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
@@ -2348,7 +2417,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>82</v>
@@ -2379,7 +2448,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -2417,7 +2486,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
@@ -2455,7 +2524,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
@@ -2493,7 +2562,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>2</v>
       </c>
@@ -2525,7 +2594,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
         <v>22</v>
       </c>
@@ -2556,7 +2625,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
         <v>91</v>
@@ -2587,7 +2656,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
@@ -2596,13 +2665,13 @@
       <c r="F36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J36" s="2"/>
@@ -2624,7 +2693,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
@@ -2633,13 +2702,13 @@
       <c r="F37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="I37" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J37" s="2"/>
@@ -2661,7 +2730,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
@@ -2694,7 +2763,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
@@ -2703,13 +2772,13 @@
       <c r="F39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J39" s="2"/>
@@ -2731,7 +2800,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
         <v>134</v>
@@ -2762,7 +2831,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
@@ -2771,13 +2840,13 @@
       <c r="F41" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="16" t="s">
         <v>36</v>
       </c>
       <c r="J41" s="2"/>
@@ -2799,7 +2868,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
@@ -2808,7 +2877,7 @@
       <c r="F42" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="16" t="s">
         <v>221</v>
       </c>
       <c r="H42" s="2"/>
@@ -2832,22 +2901,22 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="I43" s="17" t="s">
+      <c r="I43" s="16" t="s">
         <v>36</v>
       </c>
       <c r="J43" s="2"/>
@@ -2869,22 +2938,22 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17" t="s">
+      <c r="D44" s="16"/>
+      <c r="E44" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="I44" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J44" s="2"/>
@@ -2906,22 +2975,22 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17" t="s">
+      <c r="D45" s="16"/>
+      <c r="E45" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J45" s="2"/>
@@ -2943,157 +3012,157 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
+    <row r="46" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-    </row>
-    <row r="47" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="20" t="s">
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+    </row>
+    <row r="47" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="H47" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="17" t="s">
+      <c r="I47" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17" t="s">
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-    </row>
-    <row r="48" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="20" t="s">
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+    </row>
+    <row r="48" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I48" s="23" t="s">
+      <c r="I48" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="19"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17" t="s">
+      <c r="J48" s="18"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-    </row>
-    <row r="49" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="20" t="s">
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+    </row>
+    <row r="49" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17" t="s">
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="17"/>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
         <v>101</v>
       </c>
@@ -3124,7 +3193,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
         <v>102</v>
@@ -3155,7 +3224,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
@@ -3193,7 +3262,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
@@ -3231,7 +3300,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
@@ -3269,7 +3338,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
         <v>103</v>
@@ -3300,7 +3369,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
@@ -3338,7 +3407,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
@@ -3376,7 +3445,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
@@ -3414,7 +3483,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
         <v>104</v>
@@ -3445,7 +3514,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
@@ -3483,7 +3552,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
@@ -3521,7 +3590,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
@@ -3559,7 +3628,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>3</v>
       </c>
@@ -3591,7 +3660,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
       <c r="C64" s="2" t="s">
         <v>115</v>
@@ -3623,7 +3692,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
@@ -3655,7 +3724,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="2:27" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3693,7 +3762,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3731,7 +3800,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3769,7 +3838,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3803,7 +3872,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
@@ -3840,7 +3909,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
@@ -3877,7 +3946,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
         <v>143</v>
@@ -3908,7 +3977,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
@@ -3945,7 +4014,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
@@ -3982,7 +4051,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
         <v>147</v>
@@ -4013,7 +4082,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
@@ -4050,7 +4119,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="2:27" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
@@ -4087,7 +4156,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
         <v>172</v>
@@ -4115,7 +4184,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
@@ -4152,7 +4221,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
@@ -4189,7 +4258,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
@@ -4222,7 +4291,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
         <v>188</v>
@@ -4253,7 +4322,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
@@ -4286,7 +4355,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
@@ -4319,7 +4388,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
@@ -4352,7 +4421,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
@@ -4389,85 +4458,91 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
-      <c r="AA87" s="2"/>
-    </row>
-    <row r="88" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
-      <c r="AA88" s="2"/>
-    </row>
-    <row r="89" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:27" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I87" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="25"/>
+      <c r="V87" s="25"/>
+      <c r="W87" s="25"/>
+      <c r="X87" s="25"/>
+      <c r="Y87" s="25"/>
+      <c r="Z87" s="25"/>
+      <c r="AA87" s="25"/>
+    </row>
+    <row r="88" spans="2:27" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="H88" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I88" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
+      <c r="V88" s="25"/>
+      <c r="W88" s="25"/>
+      <c r="X88" s="25"/>
+      <c r="Y88" s="25"/>
+      <c r="Z88" s="25"/>
+      <c r="AA88" s="25"/>
+    </row>
+    <row r="89" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="4"/>
+      <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -4488,23 +4563,23 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -4525,24 +4600,18 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="D91" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -4562,19 +4631,24 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B92" s="3"/>
-      <c r="C92" s="2" t="s">
-        <v>121</v>
-      </c>
+    <row r="92" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -4594,19 +4668,24 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B93" s="3"/>
+    <row r="93" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -4626,30 +4705,23 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B94" s="3"/>
-      <c r="C94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="E94" s="2"/>
       <c r="F94" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
-      <c r="K94" s="2">
-        <v>2</v>
-      </c>
-      <c r="L94" s="2">
-        <v>4</v>
-      </c>
-      <c r="M94" s="2">
-        <f>L94*K94</f>
-        <v>8</v>
-      </c>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -4665,30 +4737,23 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="D95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="2">
-        <v>2</v>
-      </c>
-      <c r="L95" s="2">
-        <v>1</v>
-      </c>
-      <c r="M95" s="2">
-        <f t="shared" ref="M95:M96" si="6">L95*K95</f>
-        <v>2</v>
-      </c>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -4704,15 +4769,15 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -4722,11 +4787,11 @@
         <v>2</v>
       </c>
       <c r="L96" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M96" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>L96*K96</f>
+        <v>8</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -4743,23 +4808,30 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F97" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
+      <c r="K97" s="2">
+        <v>2</v>
+      </c>
+      <c r="L97" s="2">
+        <v>1</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" ref="M97:M98" si="6">L97*K97</f>
+        <v>2</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -4775,15 +4847,15 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4793,11 +4865,11 @@
         <v>2</v>
       </c>
       <c r="L98" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M98" s="2">
-        <f>L98*K98</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -4814,30 +4886,23 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="D99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="2"/>
       <c r="F99" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2">
-        <v>2</v>
-      </c>
-      <c r="L99" s="2">
-        <v>10</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" ref="M99:M100" si="7">L99*K99</f>
-        <v>20</v>
-      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -4853,15 +4918,15 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -4871,11 +4936,11 @@
         <v>2</v>
       </c>
       <c r="L100" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M100" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f>L100*K100</f>
+        <v>6</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -4892,23 +4957,30 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="F101" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="K101" s="2">
+        <v>2</v>
+      </c>
+      <c r="L101" s="2">
+        <v>10</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" ref="M101:M102" si="7">L101*K101</f>
+        <v>20</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -4924,15 +4996,15 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -4942,11 +5014,11 @@
         <v>2</v>
       </c>
       <c r="L102" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M102" s="2">
-        <f>L102*K102</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -4963,30 +5035,23 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="D103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103" s="2"/>
       <c r="F103" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="2">
-        <v>2</v>
-      </c>
-      <c r="L103" s="2">
-        <v>6</v>
-      </c>
-      <c r="M103" s="2">
-        <f t="shared" ref="M103:M104" si="8">L103*K103</f>
-        <v>12</v>
-      </c>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -5002,15 +5067,15 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -5020,11 +5085,11 @@
         <v>2</v>
       </c>
       <c r="L104" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M104" s="2">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f>L104*K104</f>
+        <v>6</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -5041,18 +5106,30 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B105" s="3"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="E105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
+      <c r="K105" s="2">
+        <v>2</v>
+      </c>
+      <c r="L105" s="2">
+        <v>6</v>
+      </c>
+      <c r="M105" s="2">
+        <f t="shared" ref="M105:M106" si="8">L105*K105</f>
+        <v>12</v>
+      </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -5068,18 +5145,30 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B106" s="3"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
+      <c r="E106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
+      <c r="K106" s="2">
+        <v>2</v>
+      </c>
+      <c r="L106" s="2">
+        <v>4</v>
+      </c>
+      <c r="M106" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -5095,7 +5184,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5122,7 +5211,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -5149,7 +5238,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -5176,7 +5265,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5203,7 +5292,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5230,7 +5319,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5257,7 +5346,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="113" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5284,7 +5373,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="114" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5311,7 +5400,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="115" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5338,7 +5427,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="116" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5365,7 +5454,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="117" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5392,7 +5481,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="118" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5419,7 +5508,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="119" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5446,7 +5535,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="120" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5473,7 +5562,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="121" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5500,7 +5589,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="122" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5527,7 +5616,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="123" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5554,7 +5643,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="124" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5581,7 +5670,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="125" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5608,7 +5697,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="126" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5635,7 +5724,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="127" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5662,7 +5751,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="128" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5689,7 +5778,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="129" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5716,7 +5805,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="130" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5743,7 +5832,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="131" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5770,7 +5859,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="132" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5797,7 +5886,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="133" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5824,7 +5913,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="134" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5851,7 +5940,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="135" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5878,7 +5967,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="136" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5905,7 +5994,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="137" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5932,7 +6021,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="138" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5959,7 +6048,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="139" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5986,7 +6075,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="140" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -6013,7 +6102,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="141" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -6040,7 +6129,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="142" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -6067,7 +6156,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="143" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -6094,7 +6183,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="144" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -6121,7 +6210,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="145" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -6148,7 +6237,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="146" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -6175,7 +6264,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="147" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -6202,7 +6291,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="148" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6229,7 +6318,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="149" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6256,7 +6345,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="150" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6283,7 +6372,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="151" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6310,7 +6399,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="152" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -6337,7 +6426,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="153" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -6364,7 +6453,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="154" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6391,7 +6480,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="155" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6418,7 +6507,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="156" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6445,7 +6534,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="157" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -6472,7 +6561,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="158" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -6499,7 +6588,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="159" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6526,7 +6615,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="160" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6553,7 +6642,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="161" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6580,7 +6669,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="162" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6607,7 +6696,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="163" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6634,7 +6723,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="164" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6661,7 +6750,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="165" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6688,7 +6777,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="166" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6715,7 +6804,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="167" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6742,7 +6831,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="168" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6769,7 +6858,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="169" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6796,7 +6885,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="170" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6823,7 +6912,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="171" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6850,7 +6939,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="172" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6877,7 +6966,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="173" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6904,7 +6993,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="174" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6931,7 +7020,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="175" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6958,7 +7047,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="176" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6985,7 +7074,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="177" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -7012,7 +7101,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="178" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -7039,7 +7128,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="179" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -7066,7 +7155,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="180" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -7093,7 +7182,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="181" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -7120,7 +7209,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="182" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7147,7 +7236,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="183" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7174,7 +7263,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="184" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -7201,7 +7290,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="185" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7228,7 +7317,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="186" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7255,7 +7344,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="187" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7282,7 +7371,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="188" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -7309,7 +7398,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="189" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7336,7 +7425,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="190" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7363,7 +7452,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="191" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7390,7 +7479,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="192" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -7417,7 +7506,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="193" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -7444,7 +7533,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="194" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -7471,7 +7560,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="195" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -7498,7 +7587,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="196" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -7525,7 +7614,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="197" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -7552,7 +7641,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="198" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -7579,7 +7668,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="199" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -7606,7 +7695,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="200" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -7633,7 +7722,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="201" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -7660,7 +7749,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="202" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -7687,7 +7776,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="203" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -7714,7 +7803,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="204" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -7741,7 +7830,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="205" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -7768,7 +7857,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="206" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -7795,7 +7884,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="207" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -7822,7 +7911,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="208" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -7849,7 +7938,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="209" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -7876,7 +7965,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="210" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -7903,7 +7992,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="211" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -7930,7 +8019,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="212" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -7957,7 +8046,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="213" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -7984,7 +8073,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="214" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -8011,7 +8100,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="215" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -8038,7 +8127,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="216" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -8065,7 +8154,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="217" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -8092,7 +8181,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="218" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -8119,7 +8208,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="219" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -8146,7 +8235,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="220" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -8173,7 +8262,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="221" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -8200,7 +8289,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="222" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -8227,7 +8316,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="223" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -8254,7 +8343,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="224" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8281,7 +8370,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="225" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -8308,7 +8397,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="226" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -8335,7 +8424,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="227" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -8362,7 +8451,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="228" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -8389,7 +8478,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="229" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8416,7 +8505,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="230" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -8443,7 +8532,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="231" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -8470,7 +8559,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="232" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -8497,7 +8586,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="233" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -8524,7 +8613,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="234" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -8551,7 +8640,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="235" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -8578,7 +8667,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="236" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -8605,7 +8694,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="237" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -8632,7 +8721,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="238" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -8659,7 +8748,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="239" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -8686,7 +8775,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="240" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -8713,7 +8802,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="241" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -8740,7 +8829,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="242" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -8767,7 +8856,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="243" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -8794,7 +8883,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="244" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -8821,7 +8910,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="245" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -8848,7 +8937,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="246" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -8875,7 +8964,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="247" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -8902,7 +8991,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="248" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -8929,7 +9018,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="249" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -8956,7 +9045,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="250" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -8983,7 +9072,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="251" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -9010,7 +9099,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="252" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -9037,7 +9126,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="253" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -9064,7 +9153,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="254" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -9091,7 +9180,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="255" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -9118,7 +9207,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="256" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -9145,7 +9234,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="257" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -9172,7 +9261,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="258" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -9199,7 +9288,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="259" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -9226,7 +9315,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="260" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -9253,7 +9342,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="261" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -9280,7 +9369,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="262" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -9307,7 +9396,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="263" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -9334,7 +9423,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="264" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -9361,7 +9450,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="265" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -9388,7 +9477,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="266" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -9415,7 +9504,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="267" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -9442,7 +9531,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="268" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -9469,7 +9558,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="269" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -9496,7 +9585,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="270" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -9523,7 +9612,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="271" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -9550,7 +9639,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="272" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -9577,7 +9666,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="273" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -9604,7 +9693,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="274" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -9631,7 +9720,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="275" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -9658,7 +9747,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="276" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -9685,7 +9774,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="277" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -9712,7 +9801,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="278" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -9739,7 +9828,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="279" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -9766,7 +9855,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="280" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -9793,7 +9882,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="281" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -9820,7 +9909,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="282" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -9847,7 +9936,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="283" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -9874,7 +9963,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="284" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -9901,7 +9990,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="285" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -9928,7 +10017,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="286" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -9955,7 +10044,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="287" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -9982,7 +10071,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="288" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -10009,7 +10098,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="289" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -10036,7 +10125,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="290" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -10063,7 +10152,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="291" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -10090,7 +10179,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="292" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -10117,7 +10206,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="293" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -10144,7 +10233,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="294" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -10171,7 +10260,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="295" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -10198,7 +10287,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="296" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -10225,7 +10314,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="297" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -10252,7 +10341,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="298" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -10279,7 +10368,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="299" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -10306,7 +10395,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="300" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -10333,7 +10422,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="301" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -10360,7 +10449,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="302" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -10387,7 +10476,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="303" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -10414,7 +10503,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="304" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -10441,7 +10530,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="305" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -10468,7 +10557,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="306" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -10495,7 +10584,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="307" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -10522,7 +10611,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="308" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -10549,7 +10638,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="309" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -10576,7 +10665,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="310" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -10603,7 +10692,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="311" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -10630,7 +10719,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="312" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -10657,7 +10746,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="313" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -10684,7 +10773,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="314" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -10711,7 +10800,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="315" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -10738,7 +10827,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="316" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -10765,7 +10854,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="317" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -10792,7 +10881,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="318" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -10819,7 +10908,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="319" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -10846,7 +10935,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="320" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -10873,7 +10962,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="321" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -10900,7 +10989,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="322" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -10927,7 +11016,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="323" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -10954,7 +11043,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="324" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -10981,7 +11070,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="325" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -11008,7 +11097,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="326" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -11035,7 +11124,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="327" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -11062,7 +11151,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="328" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -11089,7 +11178,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="329" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -11116,7 +11205,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="330" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11143,7 +11232,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="331" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11170,7 +11259,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="332" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11197,7 +11286,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="333" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -11224,7 +11313,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="334" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -11251,7 +11340,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="335" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -11278,7 +11367,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="336" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -11305,7 +11394,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="337" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -11332,7 +11421,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="338" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -11359,7 +11448,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="339" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -11386,7 +11475,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="340" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -11413,7 +11502,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="341" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -11440,7 +11529,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="342" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -11467,7 +11556,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="343" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -11494,7 +11583,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="344" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -11521,7 +11610,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="345" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -11548,7 +11637,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="346" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -11575,7 +11664,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="347" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -11602,7 +11691,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="348" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -11629,7 +11718,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="349" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -11656,7 +11745,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="350" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -11683,7 +11772,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="351" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -11710,7 +11799,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="352" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -11737,7 +11826,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="353" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -11764,7 +11853,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="354" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -11791,7 +11880,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="355" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -11818,7 +11907,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="356" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -11845,7 +11934,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="357" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -11872,7 +11961,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="358" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -11899,7 +11988,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="359" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -11926,7 +12015,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="360" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -11953,7 +12042,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="361" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -11980,7 +12069,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="362" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -12007,7 +12096,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="363" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -12034,7 +12123,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="364" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -12061,7 +12150,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="365" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -12088,7 +12177,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="366" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -12115,7 +12204,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="367" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -12142,7 +12231,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="368" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -12169,7 +12258,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="369" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -12196,7 +12285,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="370" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -12223,7 +12312,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="371" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -12250,7 +12339,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="372" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -12277,7 +12366,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="373" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -12304,7 +12393,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="374" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -12331,7 +12420,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="375" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -12358,7 +12447,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="376" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -12385,7 +12474,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="377" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -12412,7 +12501,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="378" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -12439,7 +12528,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="379" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -12466,7 +12555,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="380" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -12493,7 +12582,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="381" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -12520,7 +12609,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="382" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -12547,7 +12636,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="383" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -12574,7 +12663,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="384" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -12601,7 +12690,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="385" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -12628,7 +12717,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="386" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -12655,7 +12744,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="387" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -12682,7 +12771,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="388" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -12709,7 +12798,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="389" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -12736,7 +12825,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="390" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -12763,7 +12852,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="391" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -12790,7 +12879,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="392" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -12817,7 +12906,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="393" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -12844,7 +12933,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="394" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -12871,7 +12960,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="395" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -12898,7 +12987,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="396" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -12925,7 +13014,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="397" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -12952,7 +13041,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="398" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -12979,7 +13068,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="399" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -13006,7 +13095,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="400" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -13033,7 +13122,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="401" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -13060,7 +13149,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="402" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -13087,7 +13176,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="403" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -13114,7 +13203,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="404" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -13141,7 +13230,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="405" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -13168,7 +13257,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="406" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -13195,7 +13284,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="407" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -13222,7 +13311,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="408" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -13249,7 +13338,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="409" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -13276,7 +13365,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="410" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -13303,7 +13392,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="411" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -13330,7 +13419,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="412" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -13357,7 +13446,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="413" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -13384,7 +13473,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="414" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -13411,7 +13500,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="415" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -13438,7 +13527,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="416" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -13465,7 +13554,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="417" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -13492,7 +13581,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="418" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -13519,7 +13608,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="419" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -13546,7 +13635,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="420" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -13573,7 +13662,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="421" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -13600,7 +13689,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="422" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -13627,7 +13716,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="423" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -13654,7 +13743,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="424" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -13681,7 +13770,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="425" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -13708,7 +13797,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="426" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -13735,7 +13824,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="427" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -13762,7 +13851,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="428" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -13789,7 +13878,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="429" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -13816,7 +13905,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="430" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -13843,7 +13932,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="431" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -13870,7 +13959,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="432" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -13897,7 +13986,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="433" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -13924,7 +14013,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="434" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -13951,7 +14040,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="435" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -13978,7 +14067,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="436" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -14005,7 +14094,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="437" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -14032,7 +14121,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="438" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -14059,7 +14148,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="439" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -14086,7 +14175,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="440" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -14113,7 +14202,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="441" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -14140,7 +14229,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="442" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -14167,7 +14256,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="443" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -14194,7 +14283,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="444" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -14221,7 +14310,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="445" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -14248,7 +14337,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="446" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -14275,7 +14364,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="447" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -14302,7 +14391,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="448" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -14329,7 +14418,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="449" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -14356,7 +14445,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="450" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -14383,7 +14472,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="451" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -14410,7 +14499,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="452" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -14437,7 +14526,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="453" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -14464,7 +14553,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="454" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -14491,7 +14580,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="455" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -14518,7 +14607,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="456" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -14545,7 +14634,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="457" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -14572,7 +14661,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="458" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -14599,7 +14688,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="459" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -14626,7 +14715,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="460" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -14653,7 +14742,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="461" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -14680,7 +14769,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="462" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -14707,7 +14796,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="463" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -14734,7 +14823,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="464" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -14761,7 +14850,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="465" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -14788,7 +14877,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="466" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -14815,7 +14904,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="467" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -14842,7 +14931,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="468" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -14869,7 +14958,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="469" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -14896,7 +14985,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="470" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -14923,7 +15012,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="471" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -14950,7 +15039,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="472" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -14977,7 +15066,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="473" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -15004,7 +15093,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="474" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -15031,7 +15120,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="475" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -15058,7 +15147,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="476" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -15085,7 +15174,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="477" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -15112,7 +15201,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="478" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -15139,7 +15228,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="479" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -15166,7 +15255,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="480" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -15193,7 +15282,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="481" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -15220,7 +15309,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="482" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -15247,7 +15336,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="483" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -15274,7 +15363,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="484" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -15301,7 +15390,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="485" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -15328,7 +15417,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="486" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -15355,7 +15444,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="487" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -15382,7 +15471,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="488" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -15409,7 +15498,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="489" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -15436,7 +15525,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="490" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -15463,7 +15552,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="491" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -15490,7 +15579,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="492" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -15517,7 +15606,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="493" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -15544,7 +15633,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="494" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -15571,7 +15660,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="495" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -15598,7 +15687,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="496" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -15625,7 +15714,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="497" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -15652,7 +15741,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="498" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -15679,7 +15768,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="499" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -15706,7 +15795,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="500" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -15733,7 +15822,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="501" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -15760,7 +15849,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="502" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -15787,7 +15876,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="503" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -15814,7 +15903,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="504" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -15841,7 +15930,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="505" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -15868,7 +15957,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="506" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -15895,7 +15984,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="507" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -15922,7 +16011,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="508" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -15949,7 +16038,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="509" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -15976,7 +16065,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="510" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -16003,7 +16092,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="511" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
@@ -16030,7 +16119,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="512" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
@@ -16057,7 +16146,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="513" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
@@ -16084,7 +16173,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="514" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
@@ -16111,6 +16200,60 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
+    <row r="515" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C515" s="2"/>
+      <c r="D515" s="2"/>
+      <c r="E515" s="2"/>
+      <c r="F515" s="2"/>
+      <c r="G515" s="2"/>
+      <c r="H515" s="2"/>
+      <c r="I515" s="2"/>
+      <c r="J515" s="2"/>
+      <c r="K515" s="2"/>
+      <c r="L515" s="2"/>
+      <c r="M515" s="2"/>
+      <c r="N515" s="2"/>
+      <c r="O515" s="2"/>
+      <c r="P515" s="2"/>
+      <c r="Q515" s="2"/>
+      <c r="R515" s="2"/>
+      <c r="S515" s="2"/>
+      <c r="T515" s="2"/>
+      <c r="U515" s="2"/>
+      <c r="V515" s="2"/>
+      <c r="W515" s="2"/>
+      <c r="X515" s="2"/>
+      <c r="Y515" s="2"/>
+      <c r="Z515" s="2"/>
+      <c r="AA515" s="2"/>
+    </row>
+    <row r="516" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C516" s="2"/>
+      <c r="D516" s="2"/>
+      <c r="E516" s="2"/>
+      <c r="F516" s="2"/>
+      <c r="G516" s="2"/>
+      <c r="H516" s="2"/>
+      <c r="I516" s="2"/>
+      <c r="J516" s="2"/>
+      <c r="K516" s="2"/>
+      <c r="L516" s="2"/>
+      <c r="M516" s="2"/>
+      <c r="N516" s="2"/>
+      <c r="O516" s="2"/>
+      <c r="P516" s="2"/>
+      <c r="Q516" s="2"/>
+      <c r="R516" s="2"/>
+      <c r="S516" s="2"/>
+      <c r="T516" s="2"/>
+      <c r="U516" s="2"/>
+      <c r="V516" s="2"/>
+      <c r="W516" s="2"/>
+      <c r="X516" s="2"/>
+      <c r="Y516" s="2"/>
+      <c r="Z516" s="2"/>
+      <c r="AA516" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
@@ -16132,7 +16275,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="1.6640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/Gestion/L2 Mega_planif.xlsx
+++ b/Gestion/L2 Mega_planif.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="267">
   <si>
     <t>Objectif</t>
   </si>
@@ -737,9 +737,6 @@
   </si>
   <si>
     <t>- 1Hz</t>
-  </si>
-  <si>
-    <t>Analyse de la composition fréquentiel du message reçu (seuil)</t>
   </si>
   <si>
     <t>523.35 Hz</t>
@@ -857,6 +854,18 @@
       </rPr>
       <t xml:space="preserve"> = Changements revue 3 </t>
     </r>
+  </si>
+  <si>
+    <t>Analyse de la composition fréquentielle du message reçu (seuil)</t>
+  </si>
+  <si>
+    <t>Integ</t>
+  </si>
+  <si>
+    <t>Analyse avec piano et DSK</t>
+  </si>
+  <si>
+    <t>DSK + PIC + Écran LCD + Clavier (télécommande)</t>
   </si>
 </sst>
 </file>
@@ -907,12 +916,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -979,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1024,6 +1039,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1044,6 +1060,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1058,6 +1077,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,36 +1411,36 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="47.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1428,10 +1457,10 @@
   <dimension ref="A1:AA516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F88" sqref="F88"/>
+      <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,65 +1476,65 @@
     <col min="15" max="15" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-    </row>
-    <row r="2" spans="2:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
       <c r="O2" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1561,7 +1590,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1593,7 +1622,8 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1624,7 +1654,8 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1655,7 +1686,8 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1692,7 +1724,8 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1731,7 +1764,8 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1768,7 +1802,8 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>43</v>
@@ -1799,14 +1834,15 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>242</v>
+      <c r="F12" s="17" t="s">
+        <v>241</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>41</v>
@@ -1836,7 +1872,8 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -1873,7 +1910,8 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1910,17 +1948,18 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>40</v>
@@ -1933,8 +1972,8 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="16" t="s">
-        <v>245</v>
+      <c r="O15" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1949,14 +1988,15 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>246</v>
+      <c r="F16" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>56</v>
@@ -1972,8 +2012,8 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="16" t="s">
-        <v>245</v>
+      <c r="O16" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1988,47 +2028,48 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="19" t="s">
+    <row r="17" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>57</v>
@@ -2060,6 +2101,7 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -2128,6 +2170,7 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>66</v>
@@ -2159,6 +2202,7 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
@@ -2197,6 +2241,7 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
@@ -2235,6 +2280,7 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
@@ -2562,7 +2608,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>2</v>
       </c>
@@ -2594,7 +2640,8 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
       <c r="C34" s="2" t="s">
         <v>22</v>
       </c>
@@ -2625,7 +2672,8 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
         <v>91</v>
@@ -2656,7 +2704,8 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
@@ -2665,13 +2714,13 @@
       <c r="F36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J36" s="2"/>
@@ -2693,7 +2742,8 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
@@ -2702,13 +2752,13 @@
       <c r="F37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="I37" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J37" s="2"/>
@@ -2730,7 +2780,8 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
@@ -2763,7 +2814,8 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
@@ -2772,13 +2824,13 @@
       <c r="F39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J39" s="2"/>
@@ -2800,7 +2852,8 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
         <v>134</v>
@@ -2831,7 +2884,8 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
@@ -2840,13 +2894,13 @@
       <c r="F41" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J41" s="2"/>
@@ -2868,16 +2922,17 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G42" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" s="17" t="s">
         <v>221</v>
       </c>
       <c r="H42" s="2"/>
@@ -2901,22 +2956,23 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J43" s="2"/>
@@ -2938,22 +2994,23 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16" t="s">
+      <c r="D44" s="17"/>
+      <c r="E44" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="H44" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J44" s="2"/>
@@ -2975,22 +3032,23 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16" t="s">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="I45" s="16" t="s">
+      <c r="G45" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I45" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J45" s="2"/>
@@ -3012,157 +3070,161 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16" t="s">
+    <row r="46" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-    </row>
-    <row r="47" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="19" t="s">
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+    </row>
+    <row r="47" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+    </row>
+    <row r="48" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="H47" s="17" t="s">
+      <c r="G48" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="16"/>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16"/>
-    </row>
-    <row r="48" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="19" t="s">
+      <c r="I48" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="19"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+    </row>
+    <row r="49" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="G48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-    </row>
-    <row r="49" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="16"/>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
         <v>101</v>
       </c>
@@ -3193,7 +3255,8 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
         <v>102</v>
@@ -3224,7 +3287,8 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
@@ -3262,7 +3326,8 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
@@ -3300,7 +3365,8 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
@@ -3338,7 +3404,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
         <v>103</v>
@@ -3369,7 +3435,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
@@ -3407,7 +3473,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
@@ -3445,7 +3511,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
@@ -3483,7 +3549,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
         <v>104</v>
@@ -3514,7 +3580,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
@@ -3552,7 +3618,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
@@ -3590,7 +3656,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
@@ -3628,7 +3694,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>3</v>
       </c>
@@ -3660,7 +3726,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
       <c r="C64" s="2" t="s">
         <v>115</v>
@@ -3692,7 +3758,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
@@ -3724,7 +3790,8 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="16"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3762,7 +3829,8 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A67" s="16"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3800,7 +3868,8 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A68" s="16"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3838,7 +3907,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3872,7 +3941,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
@@ -3909,7 +3978,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
@@ -3946,7 +4015,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
         <v>143</v>
@@ -3977,7 +4046,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
@@ -4014,7 +4083,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
@@ -4051,7 +4120,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
         <v>147</v>
@@ -4082,7 +4151,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
@@ -4119,7 +4188,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
@@ -4156,7 +4225,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
         <v>172</v>
@@ -4184,7 +4253,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
@@ -4221,7 +4290,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
@@ -4258,7 +4327,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
@@ -4291,7 +4360,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
         <v>188</v>
@@ -4322,7 +4391,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
@@ -4355,7 +4424,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
@@ -4388,7 +4457,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
@@ -4421,17 +4490,18 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="16"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>40</v>
@@ -4458,81 +4528,83 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="2:27" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="27" t="s">
+    <row r="87" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="16"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="F87" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="F87" s="27" t="s">
+      <c r="G87" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I87" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="27"/>
+      <c r="T87" s="27"/>
+      <c r="U87" s="27"/>
+      <c r="V87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+    </row>
+    <row r="88" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="16"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G87" s="28" t="s">
+      <c r="F88" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G88" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="H87" s="27" t="s">
+      <c r="H88" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I87" s="27" t="s">
+      <c r="I88" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="25"/>
-      <c r="S87" s="25"/>
-      <c r="T87" s="25"/>
-      <c r="U87" s="25"/>
-      <c r="V87" s="25"/>
-      <c r="W87" s="25"/>
-      <c r="X87" s="25"/>
-      <c r="Y87" s="25"/>
-      <c r="Z87" s="25"/>
-      <c r="AA87" s="25"/>
-    </row>
-    <row r="88" spans="2:27" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="G88" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I88" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="25"/>
-      <c r="S88" s="25"/>
-      <c r="T88" s="25"/>
-      <c r="U88" s="25"/>
-      <c r="V88" s="25"/>
-      <c r="W88" s="25"/>
-      <c r="X88" s="25"/>
-      <c r="Y88" s="25"/>
-      <c r="Z88" s="25"/>
-      <c r="AA88" s="25"/>
-    </row>
-    <row r="89" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="27"/>
+      <c r="S88" s="27"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+    </row>
+    <row r="89" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
         <v>210</v>
@@ -4563,7 +4635,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
@@ -4600,7 +4672,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
         <v>211</v>
@@ -4631,7 +4703,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
@@ -4668,7 +4740,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
@@ -4705,7 +4777,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B94" s="3"/>
       <c r="C94" s="2" t="s">
         <v>121</v>
@@ -4737,7 +4809,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
@@ -4769,7 +4841,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4808,7 +4880,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4847,7 +4919,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4886,7 +4958,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
@@ -4918,7 +4990,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4957,7 +5029,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4996,7 +5068,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -5035,7 +5107,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
@@ -5067,7 +5139,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -5106,7 +5178,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -5145,7 +5217,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -5184,61 +5256,72 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
-      <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
-      <c r="Z107" s="2"/>
-      <c r="AA107" s="2"/>
-    </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
-      <c r="AA108" s="2"/>
-    </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="16"/>
+      <c r="B107" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="29"/>
+      <c r="U107" s="29"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="29"/>
+      <c r="AA107" s="29"/>
+    </row>
+    <row r="108" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="34"/>
+      <c r="N108" s="34"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
+      <c r="Q108" s="34"/>
+      <c r="R108" s="34"/>
+      <c r="S108" s="34"/>
+      <c r="T108" s="34"/>
+      <c r="U108" s="34"/>
+      <c r="V108" s="34"/>
+      <c r="W108" s="34"/>
+      <c r="X108" s="34"/>
+      <c r="Y108" s="34"/>
+      <c r="Z108" s="34"/>
+      <c r="AA108" s="34"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -5265,7 +5348,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5292,7 +5375,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5319,7 +5402,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>

--- a/Gestion/L2 Mega_planif.xlsx
+++ b/Gestion/L2 Mega_planif.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="271">
   <si>
     <t>Objectif</t>
   </si>
@@ -866,6 +866,18 @@
   </si>
   <si>
     <t>DSK + PIC + Écran LCD + Clavier (télécommande)</t>
+  </si>
+  <si>
+    <t>2.T.2.10</t>
+  </si>
+  <si>
+    <t>Détecter la durée des notes (Rythmique)</t>
+  </si>
+  <si>
+    <t>On peut facilement détecter les rondes, blanches, noires et les croches.</t>
+  </si>
+  <si>
+    <t>2 à 3 fausses détections</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1059,15 +1071,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1078,9 +1081,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1088,6 +1088,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,36 +1424,36 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="47.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1454,13 +1467,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA516"/>
+  <dimension ref="A1:AA517"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,62 +1490,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
       <c r="O2" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
@@ -3224,46 +3237,52 @@
       <c r="Z49" s="17"/>
       <c r="AA49" s="17"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C50" s="2" t="s">
+    <row r="50" spans="1:27" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="35"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="26"/>
+      <c r="AA50" s="26"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -3290,27 +3309,20 @@
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2">
-        <v>2</v>
-      </c>
-      <c r="L52" s="2">
-        <v>4</v>
-      </c>
-      <c r="M52" s="2">
-        <f>L52*K52</f>
-        <v>8</v>
-      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -3331,10 +3343,10 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3344,11 +3356,11 @@
         <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" ref="M53:M54" si="3">L53*K53</f>
-        <v>2</v>
+        <f>L53*K53</f>
+        <v>8</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3370,10 +3382,10 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -3386,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M54:M55" si="3">L54*K54</f>
         <v>2</v>
       </c>
       <c r="N54" s="2"/>
@@ -3405,21 +3417,29 @@
       <c r="AA54" s="2"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+      <c r="K55" s="2">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3437,27 +3457,20 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="D56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2">
-        <v>2</v>
-      </c>
-      <c r="L56" s="2">
-        <v>3</v>
-      </c>
-      <c r="M56" s="2">
-        <f>L56*K56</f>
-        <v>6</v>
-      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -3477,10 +3490,10 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3490,11 +3503,11 @@
         <v>2</v>
       </c>
       <c r="L57" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" ref="M57:M58" si="4">L57*K57</f>
-        <v>20</v>
+        <f>L57*K57</f>
+        <v>6</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -3515,10 +3528,10 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -3528,11 +3541,11 @@
         <v>2</v>
       </c>
       <c r="L58" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="M58:M59" si="4">L58*K58</f>
+        <v>20</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -3551,20 +3564,27 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
-      <c r="D59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="F59" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
+      <c r="K59" s="2">
+        <v>2</v>
+      </c>
+      <c r="L59" s="2">
+        <v>2</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -3582,27 +3602,20 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="D60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2">
-        <v>2</v>
-      </c>
-      <c r="L60" s="2">
-        <v>3</v>
-      </c>
-      <c r="M60" s="2">
-        <f>L60*K60</f>
-        <v>6</v>
-      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -3622,10 +3635,10 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3635,11 +3648,11 @@
         <v>2</v>
       </c>
       <c r="L61" s="2">
+        <v>3</v>
+      </c>
+      <c r="M61" s="2">
+        <f>L61*K61</f>
         <v>6</v>
-      </c>
-      <c r="M61" s="2">
-        <f t="shared" ref="M61:M62" si="5">L61*K61</f>
-        <v>12</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -3660,10 +3673,10 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -3673,11 +3686,11 @@
         <v>2</v>
       </c>
       <c r="L62" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" ref="M62:M63" si="5">L62*K62</f>
+        <v>12</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -3695,22 +3708,28 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B63" s="3">
-        <v>3</v>
-      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2" t="s">
-        <v>140</v>
+      <c r="E63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
+      <c r="K63" s="2">
+        <v>2</v>
+      </c>
+      <c r="L63" s="2">
+        <v>4</v>
+      </c>
+      <c r="M63" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -3727,14 +3746,14 @@
       <c r="AA63" s="2"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-      <c r="C64" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B64" s="3">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -3760,13 +3779,13 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="C65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -3790,26 +3809,19 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="D66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3829,25 +3841,25 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="16"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -3874,19 +3886,19 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>220</v>
+        <v>150</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -3908,20 +3920,25 @@
       <c r="AA68" s="2"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A69" s="16"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3941,24 +3958,21 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B70" s="3"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -3982,19 +3996,19 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -4017,16 +4031,22 @@
     </row>
     <row r="72" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
-      <c r="D72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -4048,22 +4068,16 @@
     </row>
     <row r="73" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="D73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -4087,19 +4101,19 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>187</v>
+        <v>153</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -4122,16 +4136,22 @@
     </row>
     <row r="75" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -4153,22 +4173,16 @@
     </row>
     <row r="76" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="D76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -4188,20 +4202,20 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>218</v>
+        <v>205</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>36</v>
@@ -4225,14 +4239,23 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>148</v>
+        <v>216</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -4255,21 +4278,12 @@
     </row>
     <row r="79" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="D79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -4294,16 +4308,16 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>38</v>
@@ -4331,16 +4345,20 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -4362,14 +4380,16 @@
     </row>
     <row r="82" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G82" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4393,16 +4413,14 @@
     </row>
     <row r="83" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="D83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -4428,10 +4446,10 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>221</v>
@@ -4461,10 +4479,10 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>221</v>
@@ -4491,24 +4509,19 @@
       <c r="AA85" s="2"/>
     </row>
     <row r="86" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4528,131 +4541,132 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="29" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+    </row>
+    <row r="88" spans="1:27" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="16"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="F87" s="29" t="s">
+      <c r="F88" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="G87" s="30" t="s">
+      <c r="G88" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="H87" s="29" t="s">
+      <c r="H88" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I87" s="29" t="s">
+      <c r="I88" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-    </row>
-    <row r="88" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="16"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="29" t="s">
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="24"/>
+      <c r="U88" s="24"/>
+      <c r="V88" s="24"/>
+      <c r="W88" s="24"/>
+      <c r="X88" s="24"/>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="24"/>
+      <c r="AA88" s="24"/>
+    </row>
+    <row r="89" spans="1:27" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="16"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="F89" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="G88" s="30" t="s">
+      <c r="G89" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="H88" s="29" t="s">
+      <c r="H89" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I88" s="29" t="s">
+      <c r="I89" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-    </row>
-    <row r="89" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="2"/>
-      <c r="D89" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
-      <c r="AA89" s="2"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="24"/>
+      <c r="U89" s="24"/>
+      <c r="V89" s="24"/>
+      <c r="W89" s="24"/>
+      <c r="X89" s="24"/>
+      <c r="Y89" s="24"/>
+      <c r="Z89" s="24"/>
+      <c r="AA89" s="24"/>
     </row>
     <row r="90" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D90" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -4674,16 +4688,22 @@
     </row>
     <row r="91" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -4705,22 +4725,16 @@
     </row>
     <row r="92" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="D92" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -4744,13 +4758,13 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>192</v>
@@ -4777,19 +4791,24 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B94" s="3"/>
-      <c r="C94" s="2" t="s">
-        <v>121</v>
-      </c>
+    <row r="94" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -4811,13 +4830,13 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="C95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -4844,27 +4863,20 @@
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="D96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2">
-        <v>2</v>
-      </c>
-      <c r="L96" s="2">
-        <v>4</v>
-      </c>
-      <c r="M96" s="2">
-        <f>L96*K96</f>
-        <v>8</v>
-      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -4885,10 +4897,10 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4898,11 +4910,11 @@
         <v>2</v>
       </c>
       <c r="L97" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M97" s="2">
-        <f t="shared" ref="M97:M98" si="6">L97*K97</f>
-        <v>2</v>
+        <f>L97*K97</f>
+        <v>8</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -4924,10 +4936,10 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4940,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M98:M99" si="6">L98*K98</f>
         <v>2</v>
       </c>
       <c r="N98" s="2"/>
@@ -4961,20 +4973,27 @@
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="F99" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
+      <c r="K99" s="2">
+        <v>2</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -4993,27 +5012,20 @@
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="D100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="2"/>
       <c r="F100" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2">
-        <v>2</v>
-      </c>
-      <c r="L100" s="2">
-        <v>3</v>
-      </c>
-      <c r="M100" s="2">
-        <f>L100*K100</f>
-        <v>6</v>
-      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -5034,10 +5046,10 @@
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -5047,11 +5059,11 @@
         <v>2</v>
       </c>
       <c r="L101" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" ref="M101:M102" si="7">L101*K101</f>
-        <v>20</v>
+        <f>L101*K101</f>
+        <v>6</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -5073,10 +5085,10 @@
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -5086,11 +5098,11 @@
         <v>2</v>
       </c>
       <c r="L102" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M102" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" ref="M102:M103" si="7">L102*K102</f>
+        <v>20</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -5110,20 +5122,27 @@
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F103" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
+      <c r="K103" s="2">
+        <v>2</v>
+      </c>
+      <c r="L103" s="2">
+        <v>2</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -5142,27 +5161,20 @@
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="D104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E104" s="2"/>
       <c r="F104" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
-      <c r="K104" s="2">
-        <v>2</v>
-      </c>
-      <c r="L104" s="2">
-        <v>3</v>
-      </c>
-      <c r="M104" s="2">
-        <f>L104*K104</f>
-        <v>6</v>
-      </c>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -5183,10 +5195,10 @@
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -5196,11 +5208,11 @@
         <v>2</v>
       </c>
       <c r="L105" s="2">
+        <v>3</v>
+      </c>
+      <c r="M105" s="2">
+        <f>L105*K105</f>
         <v>6</v>
-      </c>
-      <c r="M105" s="2">
-        <f t="shared" ref="M105:M106" si="8">L105*K105</f>
-        <v>12</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -5222,10 +5234,10 @@
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -5235,11 +5247,11 @@
         <v>2</v>
       </c>
       <c r="L106" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M106" s="2">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" ref="M106:M107" si="8">L106*K106</f>
+        <v>12</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -5256,97 +5268,109 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="16"/>
-      <c r="B107" s="32" t="s">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B107" s="3"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2">
+        <v>2</v>
+      </c>
+      <c r="L107" s="2">
+        <v>4</v>
+      </c>
+      <c r="M107" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+    </row>
+    <row r="108" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="16"/>
+      <c r="B108" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29" t="s">
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
-      <c r="O107" s="29"/>
-      <c r="P107" s="29"/>
-      <c r="Q107" s="29"/>
-      <c r="R107" s="29"/>
-      <c r="S107" s="29"/>
-      <c r="T107" s="29"/>
-      <c r="U107" s="29"/>
-      <c r="V107" s="29"/>
-      <c r="W107" s="29"/>
-      <c r="X107" s="29"/>
-      <c r="Y107" s="29"/>
-      <c r="Z107" s="29"/>
-      <c r="AA107" s="29"/>
-    </row>
-    <row r="108" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="32" t="s">
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+      <c r="S108" s="26"/>
+      <c r="T108" s="26"/>
+      <c r="U108" s="26"/>
+      <c r="V108" s="26"/>
+      <c r="W108" s="26"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="26"/>
+      <c r="Z108" s="26"/>
+      <c r="AA108" s="26"/>
+    </row>
+    <row r="109" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="29" t="s">
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="34"/>
-      <c r="L108" s="34"/>
-      <c r="M108" s="34"/>
-      <c r="N108" s="34"/>
-      <c r="O108" s="34"/>
-      <c r="P108" s="34"/>
-      <c r="Q108" s="34"/>
-      <c r="R108" s="34"/>
-      <c r="S108" s="34"/>
-      <c r="T108" s="34"/>
-      <c r="U108" s="34"/>
-      <c r="V108" s="34"/>
-      <c r="W108" s="34"/>
-      <c r="X108" s="34"/>
-      <c r="Y108" s="34"/>
-      <c r="Z108" s="34"/>
-      <c r="AA108" s="34"/>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-      <c r="W109" s="2"/>
-      <c r="X109" s="2"/>
-      <c r="Y109" s="2"/>
-      <c r="Z109" s="2"/>
-      <c r="AA109" s="2"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
+      <c r="M109" s="30"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="30"/>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="30"/>
+      <c r="R109" s="30"/>
+      <c r="S109" s="30"/>
+      <c r="T109" s="30"/>
+      <c r="U109" s="30"/>
+      <c r="V109" s="30"/>
+      <c r="W109" s="30"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="30"/>
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="30"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
@@ -16337,6 +16361,33 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
+    <row r="517" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C517" s="2"/>
+      <c r="D517" s="2"/>
+      <c r="E517" s="2"/>
+      <c r="F517" s="2"/>
+      <c r="G517" s="2"/>
+      <c r="H517" s="2"/>
+      <c r="I517" s="2"/>
+      <c r="J517" s="2"/>
+      <c r="K517" s="2"/>
+      <c r="L517" s="2"/>
+      <c r="M517" s="2"/>
+      <c r="N517" s="2"/>
+      <c r="O517" s="2"/>
+      <c r="P517" s="2"/>
+      <c r="Q517" s="2"/>
+      <c r="R517" s="2"/>
+      <c r="S517" s="2"/>
+      <c r="T517" s="2"/>
+      <c r="U517" s="2"/>
+      <c r="V517" s="2"/>
+      <c r="W517" s="2"/>
+      <c r="X517" s="2"/>
+      <c r="Y517" s="2"/>
+      <c r="Z517" s="2"/>
+      <c r="AA517" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
@@ -16355,7 +16406,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Gestion/L2 Mega_planif.xlsx
+++ b/Gestion/L2 Mega_planif.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="269">
   <si>
     <t>Objectif</t>
   </si>
@@ -484,9 +484,6 @@
     <t>Implémenter les différents boutons</t>
   </si>
   <si>
-    <t>Implémenter d'Autres dessins</t>
-  </si>
-  <si>
     <t>Faire les boucles de décisions de l'apparition des notes</t>
   </si>
   <si>
@@ -508,9 +505,6 @@
     <t>Communication ADC-mémoire</t>
   </si>
   <si>
-    <t>Communication sans fils</t>
-  </si>
-  <si>
     <t>Validation de l'intégrité des sons exportés</t>
   </si>
   <si>
@@ -595,9 +589,6 @@
     <t>3.T.5</t>
   </si>
   <si>
-    <t>Génération de méodie</t>
-  </si>
-  <si>
     <t>3.T.5.1</t>
   </si>
   <si>
@@ -608,9 +599,6 @@
   </si>
   <si>
     <t>3.T.5.2</t>
-  </si>
-  <si>
-    <t>3.T.5.3</t>
   </si>
   <si>
     <t>Générer une mélodie en fonction de l'accord joué</t>
@@ -878,6 +866,12 @@
   </si>
   <si>
     <t>2 à 3 fausses détections</t>
+  </si>
+  <si>
+    <t>Implémenter d'autres dessins</t>
+  </si>
+  <si>
+    <t>Génération de mélodie</t>
   </si>
 </sst>
 </file>
@@ -928,7 +922,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,6 +932,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1088,6 +1088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,36 +1425,36 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="47.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1467,13 +1468,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA517"/>
+  <dimension ref="A1:AA516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,62 +1491,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
       <c r="O2" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
@@ -1855,7 +1856,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>41</v>
@@ -1934,7 +1935,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>40</v>
@@ -1969,10 +1970,10 @@
         <v>53</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>40</v>
@@ -1986,7 +1987,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2009,7 +2010,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>56</v>
@@ -2026,7 +2027,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2046,10 +2047,10 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>54</v>
@@ -2066,7 +2067,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
@@ -2728,10 +2729,10 @@
         <v>98</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>42</v>
@@ -2766,10 +2767,10 @@
         <v>92</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>42</v>
@@ -2838,10 +2839,10 @@
         <v>114</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I39" s="17" t="s">
         <v>42</v>
@@ -2905,13 +2906,13 @@
         <v>136</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>36</v>
@@ -2943,10 +2944,10 @@
         <v>137</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2977,13 +2978,13 @@
         <v>138</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>36</v>
@@ -3015,13 +3016,13 @@
         <v>139</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>42</v>
@@ -3050,16 +3051,16 @@
       <c r="C45" s="2"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>42</v>
@@ -3088,16 +3089,16 @@
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I46" s="17" t="s">
         <v>38</v>
@@ -3126,13 +3127,13 @@
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>40</v>
@@ -3146,7 +3147,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
@@ -3166,10 +3167,10 @@
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>56</v>
@@ -3186,7 +3187,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P48" s="17"/>
       <c r="Q48" s="17"/>
@@ -3206,13 +3207,13 @@
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -3222,7 +3223,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
@@ -3238,20 +3239,20 @@
       <c r="AA49" s="17"/>
     </row>
     <row r="50" spans="1:27" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
+      <c r="A50" s="31"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I50" s="26" t="s">
         <v>42</v>
@@ -3810,6 +3811,7 @@
       <c r="AA65" s="2"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A66" s="16"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
@@ -3853,10 +3855,10 @@
         <v>149</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>42</v>
@@ -3889,16 +3891,16 @@
         <v>118</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>169</v>
+        <v>151</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -3928,16 +3930,16 @@
         <v>119</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>220</v>
+        <v>150</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -3959,6 +3961,7 @@
       <c r="AA69" s="2"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A70" s="16"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3966,10 +3969,10 @@
         <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -3993,19 +3996,20 @@
       <c r="AA70" s="2"/>
     </row>
     <row r="71" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>38</v>
@@ -4030,19 +4034,20 @@
       <c r="AA71" s="2"/>
     </row>
     <row r="72" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="16"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>62</v>
@@ -4067,6 +4072,7 @@
       <c r="AA72" s="2"/>
     </row>
     <row r="73" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="36"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
         <v>143</v>
@@ -4098,19 +4104,20 @@
       <c r="AA73" s="2"/>
     </row>
     <row r="74" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="36"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>36</v>
@@ -4135,19 +4142,20 @@
       <c r="AA74" s="2"/>
     </row>
     <row r="75" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="36"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>42</v>
@@ -4172,13 +4180,14 @@
       <c r="AA75" s="2"/>
     </row>
     <row r="76" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="36"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="4"/>
@@ -4203,19 +4212,20 @@
       <c r="AA76" s="2"/>
     </row>
     <row r="77" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="36"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>36</v>
@@ -4240,19 +4250,20 @@
       <c r="AA77" s="2"/>
     </row>
     <row r="78" spans="1:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="36"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>36</v>
@@ -4277,9 +4288,10 @@
       <c r="AA78" s="2"/>
     </row>
     <row r="79" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -4305,19 +4317,20 @@
       <c r="AA79" s="2"/>
     </row>
     <row r="80" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="36"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>38</v>
@@ -4342,19 +4355,20 @@
       <c r="AA80" s="2"/>
     </row>
     <row r="81" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="16"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>38</v>
@@ -4379,16 +4393,17 @@
       <c r="AA81" s="2"/>
     </row>
     <row r="82" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="36"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -4412,13 +4427,14 @@
       <c r="AA82" s="2"/>
     </row>
     <row r="83" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="16"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -4443,16 +4459,17 @@
       <c r="AA83" s="2"/>
     </row>
     <row r="84" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="16"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -4476,16 +4493,17 @@
       <c r="AA84" s="2"/>
     </row>
     <row r="85" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="16"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -4509,19 +4527,24 @@
       <c r="AA85" s="2"/>
     </row>
     <row r="86" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="16"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4541,56 +4564,56 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="16"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H87" s="2" t="s">
+      <c r="G87" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H87" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
-      <c r="AA87" s="2"/>
-    </row>
-    <row r="88" spans="1:27" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="24"/>
+      <c r="U87" s="24"/>
+      <c r="V87" s="24"/>
+      <c r="W87" s="24"/>
+      <c r="X87" s="24"/>
+      <c r="Y87" s="24"/>
+      <c r="Z87" s="24"/>
+      <c r="AA87" s="24"/>
+    </row>
+    <row r="88" spans="1:27" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="16"/>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F88" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G88" s="27" t="s">
         <v>257</v>
-      </c>
-      <c r="G88" s="27" t="s">
-        <v>260</v>
       </c>
       <c r="H88" s="26" t="s">
         <v>40</v>
@@ -4617,56 +4640,57 @@
       <c r="Z88" s="24"/>
       <c r="AA88" s="24"/>
     </row>
-    <row r="89" spans="1:27" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="16"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="H89" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I89" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
-      <c r="T89" s="24"/>
-      <c r="U89" s="24"/>
-      <c r="V89" s="24"/>
-      <c r="W89" s="24"/>
-      <c r="X89" s="24"/>
-      <c r="Y89" s="24"/>
-      <c r="Z89" s="24"/>
-      <c r="AA89" s="24"/>
+    <row r="89" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="36"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
     </row>
     <row r="90" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="36"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="F90" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="H90" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -4688,22 +4712,16 @@
     </row>
     <row r="91" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D91" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -4725,16 +4743,22 @@
     </row>
     <row r="92" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="F92" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H92" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="2"/>
+      <c r="I92" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -4758,16 +4782,16 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>191</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>38</v>
@@ -4791,24 +4815,19 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="2"/>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B94" s="3"/>
+      <c r="C94" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -4830,13 +4849,13 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
-      <c r="C95" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -4863,20 +4882,27 @@
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F96" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
+      <c r="K96" s="2">
+        <v>2</v>
+      </c>
+      <c r="L96" s="2">
+        <v>4</v>
+      </c>
+      <c r="M96" s="2">
+        <f>L96*K96</f>
+        <v>8</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -4897,10 +4923,10 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4910,11 +4936,11 @@
         <v>2</v>
       </c>
       <c r="L97" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M97" s="2">
-        <f>L97*K97</f>
-        <v>8</v>
+        <f t="shared" ref="M97:M98" si="6">L97*K97</f>
+        <v>2</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -4936,10 +4962,10 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4952,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" ref="M98:M99" si="6">L98*K98</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N98" s="2"/>
@@ -4973,27 +4999,20 @@
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="D99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="2"/>
       <c r="F99" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2">
-        <v>2</v>
-      </c>
-      <c r="L99" s="2">
-        <v>1</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -5012,20 +5031,27 @@
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="F100" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
+      <c r="K100" s="2">
+        <v>2</v>
+      </c>
+      <c r="L100" s="2">
+        <v>3</v>
+      </c>
+      <c r="M100" s="2">
+        <f>L100*K100</f>
+        <v>6</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -5046,10 +5072,10 @@
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -5059,11 +5085,11 @@
         <v>2</v>
       </c>
       <c r="L101" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M101" s="2">
-        <f>L101*K101</f>
-        <v>6</v>
+        <f t="shared" ref="M101:M102" si="7">L101*K101</f>
+        <v>20</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -5085,10 +5111,10 @@
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -5098,11 +5124,11 @@
         <v>2</v>
       </c>
       <c r="L102" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M102" s="2">
-        <f t="shared" ref="M102:M103" si="7">L102*K102</f>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -5122,27 +5148,20 @@
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="D103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103" s="2"/>
       <c r="F103" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="2">
-        <v>2</v>
-      </c>
-      <c r="L103" s="2">
-        <v>2</v>
-      </c>
-      <c r="M103" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -5161,20 +5180,27 @@
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="F104" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
+      <c r="K104" s="2">
+        <v>2</v>
+      </c>
+      <c r="L104" s="2">
+        <v>3</v>
+      </c>
+      <c r="M104" s="2">
+        <f>L104*K104</f>
+        <v>6</v>
+      </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -5195,10 +5221,10 @@
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -5208,11 +5234,11 @@
         <v>2</v>
       </c>
       <c r="L105" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M105" s="2">
-        <f>L105*K105</f>
-        <v>6</v>
+        <f t="shared" ref="M105:M106" si="8">L105*K105</f>
+        <v>12</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -5234,10 +5260,10 @@
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -5247,11 +5273,11 @@
         <v>2</v>
       </c>
       <c r="L106" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M106" s="2">
-        <f t="shared" ref="M106:M107" si="8">L106*K106</f>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -5268,109 +5294,97 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B107" s="3"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2">
-        <v>2</v>
-      </c>
-      <c r="L107" s="2">
-        <v>4</v>
-      </c>
-      <c r="M107" s="2">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
-      <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
-      <c r="Z107" s="2"/>
-      <c r="AA107" s="2"/>
-    </row>
-    <row r="108" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16"/>
+    <row r="107" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="16"/>
+      <c r="B107" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="26"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="26"/>
+      <c r="P107" s="26"/>
+      <c r="Q107" s="26"/>
+      <c r="R107" s="26"/>
+      <c r="S107" s="26"/>
+      <c r="T107" s="26"/>
+      <c r="U107" s="26"/>
+      <c r="V107" s="26"/>
+      <c r="W107" s="26"/>
+      <c r="X107" s="26"/>
+      <c r="Y107" s="26"/>
+      <c r="Z107" s="26"/>
+      <c r="AA107" s="26"/>
+    </row>
+    <row r="108" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
+        <v>260</v>
+      </c>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
       <c r="F108" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="26"/>
-      <c r="T108" s="26"/>
-      <c r="U108" s="26"/>
-      <c r="V108" s="26"/>
-      <c r="W108" s="26"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="26"/>
-      <c r="Z108" s="26"/>
-      <c r="AA108" s="26"/>
-    </row>
-    <row r="109" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="30"/>
-      <c r="L109" s="30"/>
-      <c r="M109" s="30"/>
-      <c r="N109" s="30"/>
-      <c r="O109" s="30"/>
-      <c r="P109" s="30"/>
-      <c r="Q109" s="30"/>
-      <c r="R109" s="30"/>
-      <c r="S109" s="30"/>
-      <c r="T109" s="30"/>
-      <c r="U109" s="30"/>
-      <c r="V109" s="30"/>
-      <c r="W109" s="30"/>
-      <c r="X109" s="30"/>
-      <c r="Y109" s="30"/>
-      <c r="Z109" s="30"/>
-      <c r="AA109" s="30"/>
+        <v>262</v>
+      </c>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="30"/>
+      <c r="M108" s="30"/>
+      <c r="N108" s="30"/>
+      <c r="O108" s="30"/>
+      <c r="P108" s="30"/>
+      <c r="Q108" s="30"/>
+      <c r="R108" s="30"/>
+      <c r="S108" s="30"/>
+      <c r="T108" s="30"/>
+      <c r="U108" s="30"/>
+      <c r="V108" s="30"/>
+      <c r="W108" s="30"/>
+      <c r="X108" s="30"/>
+      <c r="Y108" s="30"/>
+      <c r="Z108" s="30"/>
+      <c r="AA108" s="30"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
@@ -16360,33 +16374,6 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
-    </row>
-    <row r="517" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C517" s="2"/>
-      <c r="D517" s="2"/>
-      <c r="E517" s="2"/>
-      <c r="F517" s="2"/>
-      <c r="G517" s="2"/>
-      <c r="H517" s="2"/>
-      <c r="I517" s="2"/>
-      <c r="J517" s="2"/>
-      <c r="K517" s="2"/>
-      <c r="L517" s="2"/>
-      <c r="M517" s="2"/>
-      <c r="N517" s="2"/>
-      <c r="O517" s="2"/>
-      <c r="P517" s="2"/>
-      <c r="Q517" s="2"/>
-      <c r="R517" s="2"/>
-      <c r="S517" s="2"/>
-      <c r="T517" s="2"/>
-      <c r="U517" s="2"/>
-      <c r="V517" s="2"/>
-      <c r="W517" s="2"/>
-      <c r="X517" s="2"/>
-      <c r="Y517" s="2"/>
-      <c r="Z517" s="2"/>
-      <c r="AA517" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
